--- a/Feature-Analysis/Resize Feature/s_23_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_23_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.58809027774</v>
+        <v>738157.58809027774</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58877314813</v>
+        <v>738157.58877314813</v>
       </c>
       <c r="C3" s="0">
         <v>59.000001847743988</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58922453702</v>
+        <v>738157.58922453702</v>
       </c>
       <c r="C4" s="0">
         <v>98.000001534819603</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58922453702</v>
+        <v>738157.58922453702</v>
       </c>
       <c r="C5" s="0">
         <v>98.000001534819603</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58984953701</v>
+        <v>738157.58984953701</v>
       </c>
       <c r="C6" s="0">
         <v>152.00000032782555</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.59019675921</v>
+        <v>738157.59019675921</v>
       </c>
       <c r="C7" s="0">
         <v>181.9999985396862</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.59055555554</v>
+        <v>738157.59055555554</v>
       </c>
       <c r="C8" s="0">
         <v>213.00000138580799</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.59089120373</v>
+        <v>738157.59089120373</v>
       </c>
       <c r="C9" s="0">
         <v>242.00000502169132</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.59123842593</v>
+        <v>738157.59123842593</v>
       </c>
       <c r="C10" s="0">
         <v>272.00000323355198</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.59157407412</v>
+        <v>738157.59157407412</v>
       </c>
       <c r="C11" s="0">
         <v>301.00000686943531</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.59193287033</v>
+        <v>738157.59193287033</v>
       </c>
       <c r="C12" s="0">
         <v>331.99999965727329</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.59226851852</v>
+        <v>738157.59226851852</v>
       </c>
       <c r="C13" s="0">
         <v>361.00000329315662</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.59262731485</v>
+        <v>738157.59262731485</v>
       </c>
       <c r="C14" s="0">
         <v>392.00000613927841</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.59295138891</v>
+        <v>738157.59295138891</v>
       </c>
       <c r="C15" s="0">
         <v>420.00000514090061</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.59328703699</v>
+        <v>738157.59328703699</v>
       </c>
       <c r="C16" s="0">
         <v>448.99999871850014</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.59368055558</v>
+        <v>738157.59368055558</v>
       </c>
       <c r="C17" s="0">
         <v>483.00000540912151</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.59399305552</v>
+        <v>738157.59399305552</v>
       </c>
       <c r="C18" s="0">
         <v>509.99999977648258</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.59436342597</v>
+        <v>738157.59436342597</v>
       </c>
       <c r="C19" s="0">
         <v>542.0000072568655</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59471064818</v>
+        <v>738157.59471064818</v>
       </c>
       <c r="C20" s="0">
         <v>572.00000546872616</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59504629625</v>
+        <v>738157.59504629625</v>
       </c>
       <c r="C21" s="0">
         <v>600.99999904632568</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.59569444449</v>
+        <v>738157.59569444449</v>
       </c>
       <c r="C22" s="0">
         <v>657.00000710785389</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.5960532407</v>
+        <v>738157.5960532407</v>
       </c>
       <c r="C23" s="0">
         <v>687.99999989569187</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.59642361116</v>
+        <v>738157.59642361116</v>
       </c>
       <c r="C24" s="0">
         <v>720.00000737607479</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.59677083336</v>
+        <v>738157.59677083336</v>
       </c>
       <c r="C25" s="0">
         <v>750.00000558793545</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.59709490743</v>
+        <v>738157.59709490743</v>
       </c>
       <c r="C26" s="0">
         <v>778.00000458955765</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59744212963</v>
+        <v>738157.59744212963</v>
       </c>
       <c r="C27" s="0">
         <v>808.0000028014183</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59778935183</v>
+        <v>738157.59778935183</v>
       </c>
       <c r="C28" s="0">
         <v>838.00000101327896</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.59813657403</v>
+        <v>738157.59813657403</v>
       </c>
       <c r="C29" s="0">
         <v>867.99999922513962</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.59850694449</v>
+        <v>738157.59850694449</v>
       </c>
       <c r="C30" s="0">
         <v>900.00000670552254</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59884259256</v>
+        <v>738157.59884259256</v>
       </c>
       <c r="C31" s="0">
         <v>929.00000028312206</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59923611116</v>
+        <v>738157.59923611116</v>
       </c>
       <c r="C32" s="0">
         <v>963.00000697374344</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.59958333336</v>
+        <v>738157.59958333336</v>
       </c>
       <c r="C33" s="0">
         <v>993.0000051856041</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.59990740742</v>
+        <v>738157.59990740742</v>
       </c>
       <c r="C34" s="0">
         <v>1021.0000041872263</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.60023148148</v>
+        <v>738157.60023148148</v>
       </c>
       <c r="C35" s="0">
         <v>1049.0000031888485</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.60056712967</v>
+        <v>738157.60056712967</v>
       </c>
       <c r="C36" s="0">
         <v>1078.0000068247318</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.60092592589</v>
+        <v>738157.60092592589</v>
       </c>
       <c r="C37" s="0">
         <v>1108.9999996125698</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.60128472222</v>
+        <v>738157.60128472222</v>
       </c>
       <c r="C38" s="0">
         <v>1140.0000024586916</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.60164351854</v>
+        <v>738157.60164351854</v>
       </c>
       <c r="C39" s="0">
         <v>1171.0000053048134</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.60195601848</v>
+        <v>738157.60195601848</v>
       </c>
       <c r="C40" s="0">
         <v>1197.9999996721745</v>
